--- a/02 - Finished Labs/UTAustinX/Lab10 - Finite State Machines/lab10_stateTransitionTable.xlsx
+++ b/02 - Finished Labs/UTAustinX/Lab10 - Finite State Machines/lab10_stateTransitionTable.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02 - Finished Labs/UTAustinX/Lab10 - Finite State Machines/lab10_stateTransitionTable.xlsx
+++ b/02 - Finished Labs/UTAustinX/Lab10 - Finite State Machines/lab10_stateTransitionTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -582,6 +582,24 @@
   </si>
   <si>
     <t>FlashON2</t>
+  </si>
+  <si>
+    <t>PE0:</t>
+  </si>
+  <si>
+    <t>PE1:</t>
+  </si>
+  <si>
+    <t>PE2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West </t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Ped</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1229,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,8 +1850,12 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1847,8 +1869,12 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1862,8 +1888,12 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
